--- a/Excelrmtc.xlsx
+++ b/Excelrmtc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mca\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DFCE85-1601-4407-B509-270517A2A9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC92197-75A8-43C1-A665-FB35F8A67881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{27AA317F-718C-400E-BB5D-5A3A3DCEDB47}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" xr2:uid="{27AA317F-718C-400E-BB5D-5A3A3DCEDB47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>SL.No</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Deep Learning Based Weather Predicton</t>
   </si>
   <si>
-    <t>The ability to make better weather prediction</t>
-  </si>
-  <si>
     <t>Dynamical Tests of a Deep Learning Weather Prediction Model</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>IEEE</t>
-  </si>
-  <si>
-    <t>Predicting the weather by analyzing features like temperature,apparent temperature,humidity,wind</t>
   </si>
   <si>
     <t>the conventional theory-driven numerical weather prediction (NWP) methods face many challenges, such
@@ -132,6 +126,48 @@
   </si>
   <si>
     <t>A real-time weather forecasting and analysis</t>
+  </si>
+  <si>
+    <t>The focus is to survey the state-of-the-art studies of deep learning-based weather forecasting, in the aspects of the design of neural network (NN) architectures, spatial and temporal scales, as well as the datasets and benchmarks. Then we analyze the advantages and disadvantages of DLWP by comparing it with the conventional NWP, and summarize the potential future research topics of DLWP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The artificial neural network(ANN) </t>
+  </si>
+  <si>
+    <t>ERA5 (European Centre for Medium-Range Weather Forecasts (ECMWF) Reanalysis 5th Generation)</t>
+  </si>
+  <si>
+    <t>Pangu-Weather model</t>
+  </si>
+  <si>
+    <r>
+      <t>Huawei Atlas AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infrastructure</t>
+    </r>
+  </si>
+  <si>
+    <t>Predicting the weather by analyzing features like temperature,apparent temperature,humidity,wind speed, wind bearing, visibility, cloud cover with Random Forest, Decision Tree, MLP classifier, Linear regression, and Gaussian naive Bayes are examples of machine learning methods.</t>
+  </si>
+  <si>
+    <t>Random Forest, Decision Tree, MLP classifier, Linear regression, and Gaussian naive Bayes </t>
+  </si>
+  <si>
+    <t>Kaggle.com</t>
+  </si>
+  <si>
+    <t>The Hadoop Distributed File System</t>
+  </si>
+  <si>
+    <t>ARIMA model</t>
   </si>
 </sst>
 </file>
@@ -148,19 +184,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -170,6 +193,19 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -193,11 +229,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -213,17 +246,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,25 +575,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676EBB1D-C0D0-4C9B-8833-A246BCE54A97}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="3.21875" customWidth="1"/>
-    <col min="11" max="11" width="37.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,147 +622,175 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="195.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="195.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2021</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="3" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="172.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2024</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>23</v>
-      </c>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2022</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>26</v>
-      </c>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="K7" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>31</v>
-      </c>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="K8" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="K6" s="10"/>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="K9" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="K7" s="10"/>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="K10" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="K11" s="10"/>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="K11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excelrmtc.xlsx
+++ b/Excelrmtc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mca\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC92197-75A8-43C1-A665-FB35F8A67881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782C1361-9323-490E-B7FA-77D13621FB95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" xr2:uid="{27AA317F-718C-400E-BB5D-5A3A3DCEDB47}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5865" xr2:uid="{27AA317F-718C-400E-BB5D-5A3A3DCEDB47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>ELSEVIER</t>
   </si>
   <si>
-    <t>Deep Learning Based Weather Predicton</t>
-  </si>
-  <si>
     <t>Dynamical Tests of a Deep Learning Weather Prediction Model</t>
   </si>
   <si>
@@ -81,11 +78,6 @@
     <t>IEEE</t>
   </si>
   <si>
-    <t>the conventional theory-driven numerical weather prediction (NWP) methods face many challenges, such
-as incomplete understanding of physical mechanisms, difficulties in obtaining useful knowledge from the deluge of observation data.Deep learning-based weather prediction (DLWP) is expected to be a
-strong supplement to the conventional method.</t>
-  </si>
-  <si>
     <t>It conclude that the model encodes realistic physics in all experiments and suggest that it can be used as a tool for rapidly testing a wide range of hypotheses.</t>
   </si>
   <si>
@@ -119,9 +111,6 @@
     <t>The difficulties of weather forecasting, among others, are learning weather representation utilizing an enormous volume of weather dataset. For this purpose, analysis of different data mining procedure is performed. Data mining techniques enables users to analyze data from a wide range of dimensions or angles, classify it, and condense the connections recognized.</t>
   </si>
   <si>
-    <t> the continuous weather data of a particular region to predict the future weather conditions for the data analysis to predict the further weather conditions.</t>
-  </si>
-  <si>
     <t>Sushmitha Kothapalli; S. G. Totad</t>
   </si>
   <si>
@@ -140,21 +129,6 @@
     <t>Pangu-Weather model</t>
   </si>
   <si>
-    <r>
-      <t>Huawei Atlas AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> infrastructure</t>
-    </r>
-  </si>
-  <si>
     <t>Predicting the weather by analyzing features like temperature,apparent temperature,humidity,wind speed, wind bearing, visibility, cloud cover with Random Forest, Decision Tree, MLP classifier, Linear regression, and Gaussian naive Bayes are examples of machine learning methods.</t>
   </si>
   <si>
@@ -168,13 +142,26 @@
   </si>
   <si>
     <t>ARIMA model</t>
+  </si>
+  <si>
+    <t>Deep Learning Based Weather Prediction</t>
+  </si>
+  <si>
+    <t>Huawei Atlas AI infrastructure</t>
+  </si>
+  <si>
+    <t>The conventional theory-driven numerical weather prediction (NWP) methods face many challenges, such
+as incomplete understanding of physical mechanisms, difficulties in obtaining useful knowledge from the deluge of observation data.Deep learning-based weather prediction (DLWP) is expected to be a strong supplement to the conventional method.</t>
+  </si>
+  <si>
+    <t> The continuous weather data of a particular region to predict the future weather conditions for the data analysis to predict the further weather conditions.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,13 +181,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -256,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -576,7 +556,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,8 +565,8 @@
     <col min="4" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="3.28515625" customWidth="1"/>
     <col min="11" max="11" width="37.140625" customWidth="1"/>
@@ -622,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="195.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -636,28 +616,28 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -665,31 +645,31 @@
         <v>2024</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -697,28 +677,28 @@
         <v>2022</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="172.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,31 +709,31 @@
         <v>2018</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -761,19 +741,19 @@
         <v>2017</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K6" s="7"/>
     </row>
